--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
   <si>
     <t>Author notation</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t xml:space="preserve">Duduct full marks for </t>
+  </si>
+  <si>
+    <t>(-1) for incomplete method</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -408,19 +423,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,6 +536,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -540,15 +552,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1220,7 +1223,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="A33:F34" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A33:F34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="S. No" dataDxfId="4"/>
@@ -1499,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,14 +1517,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1556,7 +1559,9 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1570,7 +1575,9 @@
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1584,7 +1591,9 @@
       <c r="D5" s="2">
         <v>2</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,34 +1607,36 @@
       <c r="D6" s="18">
         <v>2</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="18">
+        <v>2</v>
+      </c>
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1658,7 +1669,9 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,7 +1685,9 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,8 +1701,12 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1700,8 +1719,12 @@
       <c r="D13" s="2">
         <v>2</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="13"/>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
@@ -1716,34 +1739,36 @@
       <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="18"/>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
       </c>
       <c r="E15" s="6">
         <f>SUM(E10:E14)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1890,11 +1915,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="27"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1906,14 +1931,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1949,7 +1974,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1968,11 +1993,11 @@
       <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -1984,14 +2009,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2030,11 +2055,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2046,14 +2071,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2074,23 +2099,28 @@
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2098,11 +2128,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Author notation</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>(-1) for incomplete method</t>
+  </si>
+  <si>
+    <t>For incorrect scanner code</t>
+  </si>
+  <si>
+    <t>No out put</t>
+  </si>
+  <si>
+    <t>For compilation errors</t>
   </si>
 </sst>
 </file>
@@ -402,6 +411,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -412,18 +433,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1502,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1517,14 +1526,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1613,11 +1622,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1629,14 +1638,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1745,11 +1754,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1761,14 +1770,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1915,11 +1924,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1931,14 +1940,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -1973,8 +1982,12 @@
       <c r="D29" s="2">
         <v>16</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="24"/>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
@@ -1989,34 +2002,38 @@
       <c r="D30" s="2">
         <v>4</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2055,11 +2072,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2071,14 +2088,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2094,33 +2111,30 @@
         <v>-5</v>
       </c>
       <c r="E37" s="2">
-        <v>0</v>
-      </c>
-      <c r="F37" s="3"/>
+        <v>-5</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2128,6 +2142,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>Author notation</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>For compilation errors</t>
+  </si>
+  <si>
+    <t>(-2)For not initializing the hashmap</t>
+  </si>
+  <si>
+    <t>(-5)For incorrect logic</t>
+  </si>
+  <si>
+    <t>(-7)For not passing test cases.</t>
   </si>
 </sst>
 </file>
@@ -411,7 +420,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,16 +441,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1511,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,14 +1535,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1622,11 +1631,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1638,14 +1647,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1754,11 +1763,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1770,14 +1779,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1812,8 +1821,12 @@
       <c r="D18" s="2">
         <v>2</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
@@ -1826,7 +1839,9 @@
       <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1842,8 +1857,12 @@
       <c r="D20" s="2">
         <v>10</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="13"/>
+      <c r="E20" s="2">
+        <v>5</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
@@ -1920,34 +1939,36 @@
       <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="18">
+        <v>2</v>
+      </c>
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2010,11 +2031,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2026,14 +2047,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2068,15 +2089,19 @@
       <c r="D34" s="2">
         <v>7</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="13"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2088,14 +2113,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2118,23 +2143,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2142,11 +2172,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="46">
   <si>
     <t>Author notation</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>For compilation errors</t>
+  </si>
+  <si>
+    <t>For not writing the logic/Functionality</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,16 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1511,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,14 +1529,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1622,11 +1625,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1638,14 +1641,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1754,11 +1757,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1770,14 +1773,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1858,8 +1861,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1890,8 +1897,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1924,30 +1935,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2010,11 +2021,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2026,14 +2037,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2072,11 +2083,11 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2088,14 +2099,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2118,23 +2129,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2142,11 +2158,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>Author notation</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>(-7)For not passing test cases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2 for returning set of brand names instead of set of customer names</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -2 for returning set of product names instead of set of brand names</t>
   </si>
 </sst>
 </file>
@@ -420,6 +426,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,18 +448,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1520,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,18 +1537,18 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1631,11 +1637,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1647,14 +1653,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1763,11 +1769,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1779,14 +1785,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1893,8 +1899,12 @@
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="2">
+        <v>8</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
@@ -1925,8 +1935,12 @@
       <c r="D24" s="2">
         <v>10</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="13"/>
+      <c r="E24" s="2">
+        <v>8</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
@@ -1945,30 +1959,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2031,11 +2045,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2047,14 +2061,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2097,11 +2111,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2113,14 +2127,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2143,28 +2157,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2172,6 +2181,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Author notation</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t xml:space="preserve"> -2 for returning set of product names instead of set of brand names</t>
+  </si>
+  <si>
+    <t>For not writing logic.</t>
   </si>
 </sst>
 </file>
@@ -426,7 +429,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,16 +450,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1526,7 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -1541,14 +1544,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1637,11 +1640,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1653,14 +1656,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1769,11 +1772,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1785,14 +1788,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1883,8 +1886,12 @@
       <c r="D21" s="2">
         <v>10</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="13"/>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
@@ -1919,8 +1926,12 @@
       <c r="D23" s="2">
         <v>10</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="13"/>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
@@ -1959,30 +1970,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2045,11 +2056,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2061,14 +2072,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2111,11 +2122,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2127,14 +2138,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2157,23 +2168,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2181,11 +2197,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
   <si>
     <t>Author notation</t>
   </si>
@@ -176,7 +176,10 @@
     <t xml:space="preserve"> -2 for returning set of product names instead of set of brand names</t>
   </si>
   <si>
-    <t>For not writing logic.</t>
+    <t xml:space="preserve">(-2) for not writing for loop in getting products list, (-2)  for not checking if condition. (-1) for finding the total count inside if condition. </t>
+  </si>
+  <si>
+    <t>(-1) incorrect logic inside for loop in getting product values,(-1) for not iterating list of products.(-2) for checking the if condition.(-1) for not adding into list of products.(-0.5) no return type. *Awarded 1 for adding it to list and have commented it. 0.5 for making the return in comments and have written in correctly.</t>
   </si>
 </sst>
 </file>
@@ -1529,8 +1532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1543,7 @@
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="63.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1887,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>50</v>
@@ -1927,10 +1930,10 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1981,7 +1984,7 @@
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>29</v>
+        <v>34.5</v>
       </c>
       <c r="F26" s="6"/>
     </row>
@@ -2179,7 +2182,7 @@
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>43</v>
+        <v>48.5</v>
       </c>
       <c r="F38" s="23"/>
     </row>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533575\Downloads\LabExam3\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>Author notation</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>(-1) incorrect logic inside for loop in getting product values,(-1) for not iterating list of products.(-2) for checking the if condition.(-1) for not adding into list of products.(-0.5) no return type. *Awarded 1 for adding it to list and have commented it. 0.5 for making the return in comments and have written in correctly.</t>
+  </si>
+  <si>
+    <t>(-0.25) for wrong file name</t>
   </si>
 </sst>
 </file>
@@ -432,6 +435,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -442,18 +457,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1532,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,14 +1550,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1590,9 +1593,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="13"/>
+        <v>1.75</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
@@ -1643,30 +1648,30 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
       </c>
       <c r="E7" s="6">
         <f>SUM(E3:E6)</f>
-        <v>7</v>
+        <v>7.75</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1775,11 +1780,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1791,14 +1796,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1973,11 +1978,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1989,14 +1994,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2059,11 +2064,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2075,14 +2080,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2125,11 +2130,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2141,14 +2146,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2171,28 +2176,23 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>48.5</v>
+        <v>49.25</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2200,6 +2200,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533985\Desktop\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -164,9 +164,6 @@
     <t>(-2)For not initializing the hashmap</t>
   </si>
   <si>
-    <t>(-5)For incorrect logic</t>
-  </si>
-  <si>
     <t>(-7)For not passing test cases.</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>(-0.25) for wrong file name</t>
+  </si>
+  <si>
+    <t>(-9) For the logic inside the method is totally incorrect.</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,16 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,14 +1550,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1596,7 +1596,7 @@
         <v>1.75</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,11 +1648,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1664,14 +1664,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1780,11 +1780,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1796,14 +1796,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1875,10 +1875,10 @@
         <v>10</v>
       </c>
       <c r="E20" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>4.5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,30 +1978,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>34.5</v>
+        <v>30.5</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2064,11 +2064,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2080,14 +2080,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2126,15 +2126,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2146,14 +2146,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2176,23 +2176,28 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>49.25</v>
+        <v>45.25</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2200,11 +2205,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533619\Documents\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,15 +152,6 @@
     <t>(-1) for incomplete method</t>
   </si>
   <si>
-    <t>For incorrect scanner code</t>
-  </si>
-  <si>
-    <t>No out put</t>
-  </si>
-  <si>
-    <t>For compilation errors</t>
-  </si>
-  <si>
     <t>(-2)For not initializing the hashmap</t>
   </si>
   <si>
@@ -183,6 +174,15 @@
   </si>
   <si>
     <t>(-9) For the logic inside the method is totally incorrect.</t>
+  </si>
+  <si>
+    <t>(2) for declaring and initalizing scanner object, (1) for scanning the nextline.</t>
+  </si>
+  <si>
+    <t>(-4) for no output displayed due to compilation errors</t>
+  </si>
+  <si>
+    <t>(-5) For compilation errors in driver as well as CustomerMapping class</t>
   </si>
 </sst>
 </file>
@@ -435,6 +435,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,18 +457,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,14 +1550,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1596,7 +1596,7 @@
         <v>1.75</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,11 +1648,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1664,14 +1664,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1780,11 +1780,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1796,14 +1796,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>4.5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,11 +1978,11 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
@@ -1994,14 +1994,14 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2037,10 +2037,10 @@
         <v>16</v>
       </c>
       <c r="E29" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,34 +2060,34 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
+      <c r="A31" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
       </c>
       <c r="E31" s="6">
         <f>SUM(E29:E30)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2126,15 +2126,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2146,14 +2146,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="32"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2172,32 +2172,27 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>45.25</v>
+        <v>44.25</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2205,6 +2200,11 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Nannuru_LabExam03Grading .xlsx
+++ b/Nannuru_LabExam03Grading .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S533574\Desktop\44542 Spring 2019\Lab Exams\Lab Exam 03\LabExam3Rubrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Desktop\LabExam3Rubrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -158,12 +158,6 @@
     <t>(-7)For not passing test cases.</t>
   </si>
   <si>
-    <t xml:space="preserve"> -2 for returning set of brand names instead of set of customer names</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -2 for returning set of product names instead of set of brand names</t>
-  </si>
-  <si>
     <t xml:space="preserve">(-2) for not writing for loop in getting products list, (-2)  for not checking if condition. (-1) for finding the total count inside if condition. </t>
   </si>
   <si>
@@ -183,6 +177,12 @@
   </si>
   <si>
     <t>(-5) For compilation errors in driver as well as CustomerMapping class</t>
+  </si>
+  <si>
+    <t>(-1) for adding brand names instead of customer names into the set</t>
+  </si>
+  <si>
+    <t>(-1) for adding product names instead of brand names into the set</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -447,16 +456,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,14 +1550,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1596,7 +1596,7 @@
         <v>1.75</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,11 +1648,11 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="6">
         <f>SUM(D3:D6)</f>
         <v>7</v>
@@ -1664,14 +1664,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
@@ -1780,11 +1780,11 @@
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="6">
         <f>SUM(D10:D14)</f>
         <v>10</v>
@@ -1796,14 +1796,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
@@ -1878,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,10 +1915,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1938,7 +1938,7 @@
         <v>4.5</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,10 +1955,10 @@
         <v>10</v>
       </c>
       <c r="E24" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1978,30 +1978,30 @@
       <c r="F25" s="19"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="6">
         <f>SUM(D18:D25)</f>
         <v>56</v>
       </c>
       <c r="E26" s="6">
         <f>SUM(E18:E25)</f>
-        <v>30.5</v>
+        <v>32.5</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
@@ -2040,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2060,15 +2060,15 @@
         <v>0</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6">
         <f>SUM(D29:D30)</f>
         <v>20</v>
@@ -2080,14 +2080,14 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
+      <c r="A32" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
@@ -2130,11 +2130,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="6">
         <f>SUM(D34:D34)</f>
         <v>7</v>
@@ -2146,14 +2146,14 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -2172,27 +2172,32 @@
         <v>-5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10">
         <f>SUM(D7, D15, D26, D35, D31)</f>
         <v>100</v>
       </c>
       <c r="E38" s="11">
         <f>SUM(E7, E15, E26, E35, E37, E31)</f>
-        <v>44.25</v>
+        <v>46.25</v>
       </c>
       <c r="F38" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A16:F16"/>
@@ -2200,11 +2205,6 @@
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A32:F32"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
